--- a/01_詳細設計書（Slideshow）.xlsx
+++ b/01_詳細設計書（Slideshow）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72c988bf6e9f1eb5/Files/10_SystemDevelopments/VisualStudio/work/002_Slideshow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Slideshow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="619" documentId="13_ncr:1_{32DFB562-5DE7-4605-B041-F9E3C28532CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A32F8DF-DCE4-414D-B11C-C0C327205B7A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2AD07-702A-47F8-9C75-10BD880AFF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="1" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="2974" yWindow="771" windowWidth="17940" windowHeight="12163" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -12283,7 +12283,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$34" spid="_x0000_s8899"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$34" spid="_x0000_s8915"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12348,7 +12348,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$36:$P$38" spid="_x0000_s8900"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$36:$P$38" spid="_x0000_s8916"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12413,7 +12413,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$23" spid="_x0000_s8901"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$23" spid="_x0000_s8917"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12478,7 +12478,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$25:$P$28" spid="_x0000_s8902"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$25:$P$28" spid="_x0000_s8918"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12576,10 +12576,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12974,7 +12970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C07FD-A30E-4188-B351-61DF0FF68E85}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -14104,9 +14100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" outlineLevelCol="1"/>
@@ -14951,7 +14947,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N38" s="3"/>
       <c r="P38" s="12" t="str">

--- a/01_詳細設計書（Slideshow）.xlsx
+++ b/01_詳細設計書（Slideshow）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Slideshow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\slideshow-cs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2AD07-702A-47F8-9C75-10BD880AFF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790C2983-3367-488C-9297-CA4BEC1707EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2974" yWindow="771" windowWidth="17940" windowHeight="12163" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="229">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1522,6 +1522,10 @@
   </si>
   <si>
     <t>MaterialDesignThemes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slide_pattern_example_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1714,7 +1718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1754,9 +1758,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1775,7 +1776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1783,12 +1784,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1805,22 +1800,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12283,7 +12272,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$34" spid="_x0000_s8915"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$34" spid="_x0000_s8963"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12348,7 +12337,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$36:$P$38" spid="_x0000_s8916"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$36:$P$39" spid="_x0000_s8964"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12413,7 +12402,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$23" spid="_x0000_s8917"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$23" spid="_x0000_s8965"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12478,7 +12467,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$25:$P$28" spid="_x0000_s8918"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$25:$P$28" spid="_x0000_s8966"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13004,7 +12993,7 @@
       <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13083,11 +13072,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="D16" s="13" t="str">
+      <c r="D16" t="str">
         <f>$D$5&amp;"Test.Tests"</f>
         <v>SlideshowTest.Tests</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" t="s">
         <v>134</v>
       </c>
       <c r="F16" t="s">
@@ -13701,7 +13690,7 @@
       <c r="D6" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -13712,10 +13701,10 @@
       <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>116</v>
       </c>
       <c r="F7" t="s">
@@ -13732,7 +13721,7 @@
       <c r="D8" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -13740,7 +13729,7 @@
       <c r="B9" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>225</v>
       </c>
     </row>
@@ -13775,7 +13764,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -13828,29 +13817,29 @@
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="17" t="str">
         <f>D7&amp;"Model"</f>
         <v>SlideshowViewModel</v>
       </c>
@@ -13861,13 +13850,13 @@
       <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="17" t="str">
         <f t="shared" ref="E8:E12" si="0">D8&amp;"Model"</f>
         <v>PageSettingViewModel</v>
       </c>
@@ -13878,13 +13867,13 @@
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>PageEditingViewModel</v>
       </c>
@@ -13895,13 +13884,13 @@
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="18" t="str">
+      <c r="E10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SlidePatternSettingViewModel</v>
       </c>
@@ -13912,13 +13901,13 @@
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="18" t="str">
+      <c r="E11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SlidePatternEditingViewModel</v>
       </c>
@@ -13929,13 +13918,13 @@
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="18" t="str">
+      <c r="E12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>OtherSettingsViewModel</v>
       </c>
@@ -13948,9 +13937,9 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
     </row>
@@ -13958,9 +13947,9 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
@@ -13968,9 +13957,9 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
     </row>
@@ -13978,9 +13967,9 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
@@ -13988,7 +13977,7 @@
       <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -14050,37 +14039,37 @@
       <c r="D6" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
       <c r="F8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="30.9">
       <c r="B10" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
@@ -14098,11 +14087,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" outlineLevelCol="1"/>
@@ -14140,107 +14129,107 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="30" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="C6" s="34">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="3" t="s">
         <v>219</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E6),"_",""),4,99)&amp;"Entity","")</f>
         <v>PageMstEntity</v>
       </c>
-      <c r="G6" s="35" t="str">
+      <c r="G6" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v>IPageMstRepository</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="C7" s="34">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="3" t="s">
         <v>220</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E7),"_",""),4,99)&amp;"Entity","")</f>
         <v>SlidePatternMstEntity</v>
       </c>
-      <c r="G7" s="35" t="str">
+      <c r="G7" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v>ISlidePatternMstRepository</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="C8" s="34">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E8),"_",""),4,99)&amp;"Entity","")</f>
         <v>SlidePatternPageMstEntity</v>
       </c>
-      <c r="G8" s="35" t="str">
+      <c r="G8" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v>ISlidePatternPageMstRepository</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="C9" s="34">
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E9),"_",""),4,99)&amp;"Entity","")</f>
         <v>SlidePatternNameSelectionMstEntity</v>
       </c>
-      <c r="G9" s="35" t="str">
+      <c r="G9" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v>ISlidePatternNameSelectionMstRepository</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="str">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E10),"_",""),4,99)&amp;"Entity","")</f>
         <v/>
       </c>
-      <c r="G10" s="35" t="str">
+      <c r="G10" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v/>
       </c>
@@ -14249,7 +14238,7 @@
       <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" t="s">
         <v>176</v>
       </c>
     </row>
@@ -14269,7 +14258,7 @@
         <f>_xlfn.XLOOKUP($C13,テーブル一覧[No],テーブル一覧[Entity])</f>
         <v>PageMstEntity</v>
       </c>
-      <c r="P13" s="24" t="str">
+      <c r="P13" s="22" t="str">
         <f>"■"&amp;D13&amp;":"&amp;E13</f>
         <v>■ページマスタ:ssh_page_mst</v>
       </c>
@@ -14281,7 +14270,7 @@
       <c r="E14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="26" t="s">
         <v>217</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -14308,7 +14297,7 @@
       <c r="N14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="25"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:16">
       <c r="D15" s="3" t="s">
@@ -14339,7 +14328,7 @@
         <v>80</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="P15" s="26" t="str">
+      <c r="P15" s="23" t="str">
         <f>D15&amp;":"&amp;E15&amp;IF(H15="●","(PK)","")&amp;IF(I15="●","(FK)","")</f>
         <v>ページID:page_id(PK)</v>
       </c>
@@ -14371,7 +14360,7 @@
       <c r="N16" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P16" s="27" t="str">
+      <c r="P16" s="24" t="str">
         <f t="shared" ref="P16:P23" si="1">D16&amp;":"&amp;E16&amp;IF(H16="●","(PK)","")&amp;IF(I16="●","(FK)","")</f>
         <v>ページ名称:page_name</v>
       </c>
@@ -14401,7 +14390,7 @@
       <c r="N17" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P17" s="27" t="str">
+      <c r="P17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>動画リンク:movie_link</v>
       </c>
@@ -14431,7 +14420,7 @@
       <c r="N18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P18" s="27" t="str">
+      <c r="P18" s="24" t="str">
         <f t="shared" si="1"/>
         <v>画像リンク:image_link</v>
       </c>
@@ -14447,7 +14436,7 @@
         <f t="shared" si="0"/>
         <v>ImagePageNo</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>5</v>
       </c>
       <c r="H19" s="3"/>
@@ -14461,7 +14450,7 @@
       <c r="N19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="P19" s="27" t="str">
+      <c r="P19" s="24" t="str">
         <f t="shared" si="1"/>
         <v>画像ページNo:image_page_no</v>
       </c>
@@ -14491,7 +14480,7 @@
         <v>109</v>
       </c>
       <c r="N20" s="3"/>
-      <c r="P20" s="27" t="str">
+      <c r="P20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>スライド停止時間:slide_waiting_time</v>
       </c>
@@ -14503,7 +14492,7 @@
       <c r="E21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="25" t="s">
         <v>218</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -14520,7 +14509,7 @@
       <c r="N21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="27" t="str">
+      <c r="P21" s="24" t="str">
         <f t="shared" si="1"/>
         <v>説明1:note1</v>
       </c>
@@ -14532,7 +14521,7 @@
       <c r="E22" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="25" t="s">
         <v>218</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -14549,7 +14538,7 @@
       <c r="N22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="27" t="str">
+      <c r="P22" s="24" t="str">
         <f t="shared" si="1"/>
         <v>説明2:note2</v>
       </c>
@@ -14561,7 +14550,7 @@
       <c r="E23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="25" t="s">
         <v>218</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -14578,13 +14567,13 @@
       <c r="N23" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P23" s="27" t="str">
+      <c r="P23" s="24" t="str">
         <f t="shared" si="1"/>
         <v>説明3:note3</v>
       </c>
     </row>
     <row r="24" spans="3:16">
-      <c r="P24" s="25"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="3:16">
       <c r="C25">
@@ -14602,7 +14591,7 @@
         <f>_xlfn.XLOOKUP($C25,テーブル一覧[No],テーブル一覧[Entity])</f>
         <v>SlidePatternMstEntity</v>
       </c>
-      <c r="P25" s="24" t="str">
+      <c r="P25" s="22" t="str">
         <f>"■"&amp;D25&amp;":"&amp;E25</f>
         <v>■スライドパターンマスタ:ssh_slide_pattern_mst</v>
       </c>
@@ -14614,7 +14603,7 @@
       <c r="E26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="26" t="s">
         <v>217</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -14641,7 +14630,7 @@
       <c r="N26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P26" s="25"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="3:16">
       <c r="D27" s="3" t="s">
@@ -14670,7 +14659,7 @@
         <v>80</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="P27" s="26" t="str">
+      <c r="P27" s="23" t="str">
         <f>D27&amp;":"&amp;E27&amp;IF(H27="●","(PK)","")&amp;IF(I27="●","(FK)","")</f>
         <v>スライドパターンID:slide_pattern_id(PK)</v>
       </c>
@@ -14700,13 +14689,13 @@
         <v>81</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="P28" s="27" t="str">
+      <c r="P28" s="24" t="str">
         <f t="shared" ref="P28" si="3">D28&amp;":"&amp;E28&amp;IF(H28="●","(PK)","")&amp;IF(I28="●","(FK)","")</f>
         <v>スライドパターン名称:slide_pattern_name</v>
       </c>
     </row>
     <row r="29" spans="3:16">
-      <c r="P29" s="25"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="3:16">
       <c r="C30">
@@ -14724,7 +14713,7 @@
         <f>_xlfn.XLOOKUP($C30,テーブル一覧[No],テーブル一覧[Entity])</f>
         <v>SlidePatternPageMstEntity</v>
       </c>
-      <c r="P30" s="24" t="str">
+      <c r="P30" s="22" t="str">
         <f>"■"&amp;D30&amp;":"&amp;E30</f>
         <v>■スライドパターンページマスタ:ssh_slide_pattern_page_mst</v>
       </c>
@@ -14736,7 +14725,7 @@
       <c r="E31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="26" t="s">
         <v>217</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -14763,7 +14752,7 @@
       <c r="N31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P31" s="25"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="3:16">
       <c r="D32" s="3" t="s">
@@ -14796,7 +14785,7 @@
       <c r="N32" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="P32" s="26" t="str">
+      <c r="P32" s="23" t="str">
         <f>D32&amp;":"&amp;E32&amp;IF(H32="●","(PK)","")&amp;IF(I32="●","(FK)","")</f>
         <v>スライドパターンID:slide_pattern_id(PK)(FK)</v>
       </c>
@@ -14828,7 +14817,7 @@
         <v>80</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="P33" s="26" t="str">
+      <c r="P33" s="23" t="str">
         <f>D33&amp;":"&amp;E33&amp;IF(H33="●","(PK)","")&amp;IF(I33="●","(FK)","")</f>
         <v>スライドNo:slide_no(PK)</v>
       </c>
@@ -14860,13 +14849,13 @@
       <c r="N34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="P34" s="27" t="str">
+      <c r="P34" s="24" t="str">
         <f t="shared" ref="P34" si="5">D34&amp;":"&amp;E34&amp;IF(H34="●","(PK)","")&amp;IF(I34="●","(FK)","")</f>
         <v>ページID:page_id(FK)</v>
       </c>
     </row>
     <row r="35" spans="3:16">
-      <c r="P35" s="25"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" spans="3:16">
       <c r="C36">
@@ -14884,7 +14873,7 @@
         <f>_xlfn.XLOOKUP($C36,テーブル一覧[No],テーブル一覧[Entity])</f>
         <v>SlidePatternNameSelectionMstEntity</v>
       </c>
-      <c r="P36" s="24" t="str">
+      <c r="P36" s="22" t="str">
         <f>"■"&amp;D36&amp;":"&amp;E36</f>
         <v>■スライドパターン名称候補マスタ:ssh_slide_pattern_name_selection_mst</v>
       </c>
@@ -14896,7 +14885,7 @@
       <c r="E37" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="26" t="s">
         <v>217</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -14929,13 +14918,14 @@
         <v>207</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>198</v>
+        <v>228</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f>SUBSTITUTE(PROPER(E38),"_","")</f>
+        <v>SlidePatternExampleId</v>
+      </c>
+      <c r="G38" s="21">
+        <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>146</v>
@@ -14947,12 +14937,41 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N38" s="3"/>
       <c r="P38" s="12" t="str">
         <f>D38&amp;":"&amp;E38&amp;IF(H38="●","(PK)","")&amp;IF(I38="●","(FK)","")</f>
-        <v>スライドパターン名称例:slide_pattern_name_example(PK)</v>
+        <v>スライドパターン名称例:slide_pattern_example_id(PK)</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16">
+      <c r="D39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="P39" s="24" t="str">
+        <f>D39&amp;":"&amp;E39&amp;IF(H39="●","(PK)","")&amp;IF(I39="●","(FK)","")</f>
+        <v>スライドパターン名称例:slide_pattern_name_example</v>
       </c>
     </row>
   </sheetData>
@@ -14969,9 +14988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE56C39-CD54-418A-B5B7-5F71B0B9F184}">
   <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AT40" sqref="AT40"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
   <cols>

--- a/01_詳細設計書（Slideshow）.xlsx
+++ b/01_詳細設計書（Slideshow）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\slideshow-cs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790C2983-3367-488C-9297-CA4BEC1707EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492535F4-6AAC-4A5D-BD73-D3CCC565A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="4" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="230">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1510,22 +1510,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ViewModelEntityのObservableCollectionは、「○○Records」と名付ける。</t>
-    <rPh sb="50" eb="52">
+    <t>WindowsAPICodePack-Shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaterialDesignThemes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slide_pattern_example_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EntityもしくはViewModelEntityのObservableCollectionは、「○○Entities」と名付ける。</t>
+    <rPh sb="61" eb="63">
       <t>ナヅ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WindowsAPICodePack-Shell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MaterialDesignThemes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slide_pattern_example_id</t>
+    <t>SampleTableEntities</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12272,7 +12276,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$34" spid="_x0000_s8963"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$34" spid="_x0000_s8971"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12337,7 +12341,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$36:$P$39" spid="_x0000_s8964"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$36:$P$39" spid="_x0000_s8972"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12402,7 +12406,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$23" spid="_x0000_s8965"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$23" spid="_x0000_s8973"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12467,7 +12471,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$25:$P$28" spid="_x0000_s8966"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$25:$P$28" spid="_x0000_s8974"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13099,12 +13103,12 @@
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="E21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="3:5">
@@ -13639,16 +13643,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D0B5D-E663-4276-8931-9FBB1584BC6A}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="37.0625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1875" customWidth="1"/>
+    <col min="4" max="4" width="42.1875" customWidth="1"/>
     <col min="5" max="5" width="29.4375" customWidth="1"/>
     <col min="6" max="6" width="51.3125" customWidth="1"/>
   </cols>
@@ -13729,8 +13731,14 @@
       <c r="B9" t="s">
         <v>99</v>
       </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
       <c r="D9" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -14089,7 +14097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E38" sqref="E38"/>
     </sheetView>
@@ -14918,7 +14926,7 @@
         <v>207</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F38" s="3" t="str">
         <f>SUBSTITUTE(PROPER(E38),"_","")</f>

--- a/01_詳細設計書（Slideshow）.xlsx
+++ b/01_詳細設計書（Slideshow）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Slideshow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\slideshow-cs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2AD07-702A-47F8-9C75-10BD880AFF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492535F4-6AAC-4A5D-BD73-D3CCC565A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2974" yWindow="771" windowWidth="17940" windowHeight="12163" tabRatio="878" activeTab="7" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" tabRatio="878" activeTab="4" xr2:uid="{230E2ACB-C9BF-45DE-B4E8-E9A393C5B205}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="230">
   <si>
     <t>開発環境</t>
     <rPh sb="0" eb="2">
@@ -1510,18 +1510,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ViewModelEntityのObservableCollectionは、「○○Records」と名付ける。</t>
-    <rPh sb="50" eb="52">
+    <t>WindowsAPICodePack-Shell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaterialDesignThemes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slide_pattern_example_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EntityもしくはViewModelEntityのObservableCollectionは、「○○Entities」と名付ける。</t>
+    <rPh sb="61" eb="63">
       <t>ナヅ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WindowsAPICodePack-Shell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MaterialDesignThemes</t>
+    <t>SampleTableEntities</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1714,7 +1722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1754,9 +1762,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1775,7 +1780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1783,12 +1788,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1805,22 +1804,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12283,7 +12276,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$34" spid="_x0000_s8915"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$30:$P$34" spid="_x0000_s8971"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12348,7 +12341,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$36:$P$38" spid="_x0000_s8916"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$36:$P$39" spid="_x0000_s8972"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12413,7 +12406,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$23" spid="_x0000_s8917"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$13:$P$23" spid="_x0000_s8973"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12478,7 +12471,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$25:$P$28" spid="_x0000_s8918"/>
+                  <a14:cameraTool cellRange="'3-2_テーブル設計'!$P$25:$P$28" spid="_x0000_s8974"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13004,7 +12997,7 @@
       <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13083,11 +13076,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="D16" s="13" t="str">
+      <c r="D16" t="str">
         <f>$D$5&amp;"Test.Tests"</f>
         <v>SlideshowTest.Tests</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" t="s">
         <v>134</v>
       </c>
       <c r="F16" t="s">
@@ -13110,12 +13103,12 @@
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="E21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="3:5">
@@ -13650,16 +13643,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D0B5D-E663-4276-8931-9FBB1584BC6A}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
   <cols>
     <col min="1" max="1" width="2.5625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="37.0625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1875" customWidth="1"/>
+    <col min="4" max="4" width="42.1875" customWidth="1"/>
     <col min="5" max="5" width="29.4375" customWidth="1"/>
     <col min="6" max="6" width="51.3125" customWidth="1"/>
   </cols>
@@ -13701,7 +13692,7 @@
       <c r="D6" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -13712,10 +13703,10 @@
       <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>116</v>
       </c>
       <c r="F7" t="s">
@@ -13732,7 +13723,7 @@
       <c r="D8" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -13740,8 +13731,14 @@
       <c r="B9" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>225</v>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -13775,7 +13772,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45"/>
@@ -13828,29 +13825,29 @@
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="17" t="str">
         <f>D7&amp;"Model"</f>
         <v>SlideshowViewModel</v>
       </c>
@@ -13861,13 +13858,13 @@
       <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="17" t="str">
         <f t="shared" ref="E8:E12" si="0">D8&amp;"Model"</f>
         <v>PageSettingViewModel</v>
       </c>
@@ -13878,13 +13875,13 @@
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>PageEditingViewModel</v>
       </c>
@@ -13895,13 +13892,13 @@
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="18" t="str">
+      <c r="E10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SlidePatternSettingViewModel</v>
       </c>
@@ -13912,13 +13909,13 @@
       <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="18" t="str">
+      <c r="E11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>SlidePatternEditingViewModel</v>
       </c>
@@ -13929,13 +13926,13 @@
       <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="18" t="str">
+      <c r="E12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>OtherSettingsViewModel</v>
       </c>
@@ -13948,9 +13945,9 @@
       <c r="B13" s="8">
         <v>8</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
     </row>
@@ -13958,9 +13955,9 @@
       <c r="B14" s="8">
         <v>9</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
@@ -13968,9 +13965,9 @@
       <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
     </row>
@@ -13978,9 +13975,9 @@
       <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
     </row>
@@ -13988,7 +13985,7 @@
       <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -14050,37 +14047,37 @@
       <c r="D6" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
       <c r="F8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="30.9">
       <c r="B10" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
@@ -14098,11 +14095,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C0EB9-5EC4-40B0-933C-3C777DFE4EAF}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" outlineLevelCol="1"/>
@@ -14140,107 +14137,107 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="30" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="C6" s="34">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="3" t="s">
         <v>219</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E6),"_",""),4,99)&amp;"Entity","")</f>
         <v>PageMstEntity</v>
       </c>
-      <c r="G6" s="35" t="str">
+      <c r="G6" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v>IPageMstRepository</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="C7" s="34">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="3" t="s">
         <v>220</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E7),"_",""),4,99)&amp;"Entity","")</f>
         <v>SlidePatternMstEntity</v>
       </c>
-      <c r="G7" s="35" t="str">
+      <c r="G7" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v>ISlidePatternMstRepository</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="C8" s="34">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E8),"_",""),4,99)&amp;"Entity","")</f>
         <v>SlidePatternPageMstEntity</v>
       </c>
-      <c r="G8" s="35" t="str">
+      <c r="G8" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v>ISlidePatternPageMstRepository</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="C9" s="34">
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E9),"_",""),4,99)&amp;"Entity","")</f>
         <v>SlidePatternNameSelectionMstEntity</v>
       </c>
-      <c r="G9" s="35" t="str">
+      <c r="G9" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v>ISlidePatternNameSelectionMstRepository</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34" t="str">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"",MID(SUBSTITUTE(PROPER(E10),"_",""),4,99)&amp;"Entity","")</f>
         <v/>
       </c>
-      <c r="G10" s="35" t="str">
+      <c r="G10" s="3" t="str">
         <f>IF(テーブル一覧[[#This Row],[物理名]]&lt;&gt;"","I"&amp;SUBSTITUTE(テーブル一覧[[#This Row],[Entity]],"Entity","")&amp;"Repository","")</f>
         <v/>
       </c>
@@ -14249,7 +14246,7 @@
       <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" t="s">
         <v>176</v>
       </c>
     </row>
@@ -14269,7 +14266,7 @@
         <f>_xlfn.XLOOKUP($C13,テーブル一覧[No],テーブル一覧[Entity])</f>
         <v>PageMstEntity</v>
       </c>
-      <c r="P13" s="24" t="str">
+      <c r="P13" s="22" t="str">
         <f>"■"&amp;D13&amp;":"&amp;E13</f>
         <v>■ページマスタ:ssh_page_mst</v>
       </c>
@@ -14281,7 +14278,7 @@
       <c r="E14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="26" t="s">
         <v>217</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -14308,7 +14305,7 @@
       <c r="N14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="25"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:16">
       <c r="D15" s="3" t="s">
@@ -14339,7 +14336,7 @@
         <v>80</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="P15" s="26" t="str">
+      <c r="P15" s="23" t="str">
         <f>D15&amp;":"&amp;E15&amp;IF(H15="●","(PK)","")&amp;IF(I15="●","(FK)","")</f>
         <v>ページID:page_id(PK)</v>
       </c>
@@ -14371,7 +14368,7 @@
       <c r="N16" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P16" s="27" t="str">
+      <c r="P16" s="24" t="str">
         <f t="shared" ref="P16:P23" si="1">D16&amp;":"&amp;E16&amp;IF(H16="●","(PK)","")&amp;IF(I16="●","(FK)","")</f>
         <v>ページ名称:page_name</v>
       </c>
@@ -14401,7 +14398,7 @@
       <c r="N17" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P17" s="27" t="str">
+      <c r="P17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>動画リンク:movie_link</v>
       </c>
@@ -14431,7 +14428,7 @@
       <c r="N18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P18" s="27" t="str">
+      <c r="P18" s="24" t="str">
         <f t="shared" si="1"/>
         <v>画像リンク:image_link</v>
       </c>
@@ -14447,7 +14444,7 @@
         <f t="shared" si="0"/>
         <v>ImagePageNo</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>5</v>
       </c>
       <c r="H19" s="3"/>
@@ -14461,7 +14458,7 @@
       <c r="N19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="P19" s="27" t="str">
+      <c r="P19" s="24" t="str">
         <f t="shared" si="1"/>
         <v>画像ページNo:image_page_no</v>
       </c>
@@ -14491,7 +14488,7 @@
         <v>109</v>
       </c>
       <c r="N20" s="3"/>
-      <c r="P20" s="27" t="str">
+      <c r="P20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>スライド停止時間:slide_waiting_time</v>
       </c>
@@ -14503,7 +14500,7 @@
       <c r="E21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="25" t="s">
         <v>218</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -14520,7 +14517,7 @@
       <c r="N21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="27" t="str">
+      <c r="P21" s="24" t="str">
         <f t="shared" si="1"/>
         <v>説明1:note1</v>
       </c>
@@ -14532,7 +14529,7 @@
       <c r="E22" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="25" t="s">
         <v>218</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -14549,7 +14546,7 @@
       <c r="N22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="27" t="str">
+      <c r="P22" s="24" t="str">
         <f t="shared" si="1"/>
         <v>説明2:note2</v>
       </c>
@@ -14561,7 +14558,7 @@
       <c r="E23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="25" t="s">
         <v>218</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -14578,13 +14575,13 @@
       <c r="N23" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P23" s="27" t="str">
+      <c r="P23" s="24" t="str">
         <f t="shared" si="1"/>
         <v>説明3:note3</v>
       </c>
     </row>
     <row r="24" spans="3:16">
-      <c r="P24" s="25"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="3:16">
       <c r="C25">
@@ -14602,7 +14599,7 @@
         <f>_xlfn.XLOOKUP($C25,テーブル一覧[No],テーブル一覧[Entity])</f>
         <v>SlidePatternMstEntity</v>
       </c>
-      <c r="P25" s="24" t="str">
+      <c r="P25" s="22" t="str">
         <f>"■"&amp;D25&amp;":"&amp;E25</f>
         <v>■スライドパターンマスタ:ssh_slide_pattern_mst</v>
       </c>
@@ -14614,7 +14611,7 @@
       <c r="E26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="26" t="s">
         <v>217</v>
       </c>
       <c r="G26" s="10" t="s">
@@ -14641,7 +14638,7 @@
       <c r="N26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P26" s="25"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="3:16">
       <c r="D27" s="3" t="s">
@@ -14670,7 +14667,7 @@
         <v>80</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="P27" s="26" t="str">
+      <c r="P27" s="23" t="str">
         <f>D27&amp;":"&amp;E27&amp;IF(H27="●","(PK)","")&amp;IF(I27="●","(FK)","")</f>
         <v>スライドパターンID:slide_pattern_id(PK)</v>
       </c>
@@ -14700,13 +14697,13 @@
         <v>81</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="P28" s="27" t="str">
+      <c r="P28" s="24" t="str">
         <f t="shared" ref="P28" si="3">D28&amp;":"&amp;E28&amp;IF(H28="●","(PK)","")&amp;IF(I28="●","(FK)","")</f>
         <v>スライドパターン名称:slide_pattern_name</v>
       </c>
     </row>
     <row r="29" spans="3:16">
-      <c r="P29" s="25"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="3:16">
       <c r="C30">
@@ -14724,7 +14721,7 @@
         <f>_xlfn.XLOOKUP($C30,テーブル一覧[No],テーブル一覧[Entity])</f>
         <v>SlidePatternPageMstEntity</v>
       </c>
-      <c r="P30" s="24" t="str">
+      <c r="P30" s="22" t="str">
         <f>"■"&amp;D30&amp;":"&amp;E30</f>
         <v>■スライドパターンページマスタ:ssh_slide_pattern_page_mst</v>
       </c>
@@ -14736,7 +14733,7 @@
       <c r="E31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="26" t="s">
         <v>217</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -14763,7 +14760,7 @@
       <c r="N31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P31" s="25"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="3:16">
       <c r="D32" s="3" t="s">
@@ -14796,7 +14793,7 @@
       <c r="N32" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="P32" s="26" t="str">
+      <c r="P32" s="23" t="str">
         <f>D32&amp;":"&amp;E32&amp;IF(H32="●","(PK)","")&amp;IF(I32="●","(FK)","")</f>
         <v>スライドパターンID:slide_pattern_id(PK)(FK)</v>
       </c>
@@ -14828,7 +14825,7 @@
         <v>80</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="P33" s="26" t="str">
+      <c r="P33" s="23" t="str">
         <f>D33&amp;":"&amp;E33&amp;IF(H33="●","(PK)","")&amp;IF(I33="●","(FK)","")</f>
         <v>スライドNo:slide_no(PK)</v>
       </c>
@@ -14860,13 +14857,13 @@
       <c r="N34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="P34" s="27" t="str">
+      <c r="P34" s="24" t="str">
         <f t="shared" ref="P34" si="5">D34&amp;":"&amp;E34&amp;IF(H34="●","(PK)","")&amp;IF(I34="●","(FK)","")</f>
         <v>ページID:page_id(FK)</v>
       </c>
     </row>
     <row r="35" spans="3:16">
-      <c r="P35" s="25"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" spans="3:16">
       <c r="C36">
@@ -14884,7 +14881,7 @@
         <f>_xlfn.XLOOKUP($C36,テーブル一覧[No],テーブル一覧[Entity])</f>
         <v>SlidePatternNameSelectionMstEntity</v>
       </c>
-      <c r="P36" s="24" t="str">
+      <c r="P36" s="22" t="str">
         <f>"■"&amp;D36&amp;":"&amp;E36</f>
         <v>■スライドパターン名称候補マスタ:ssh_slide_pattern_name_selection_mst</v>
       </c>
@@ -14896,7 +14893,7 @@
       <c r="E37" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="26" t="s">
         <v>217</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -14929,13 +14926,14 @@
         <v>207</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>198</v>
+        <v>227</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f>SUBSTITUTE(PROPER(E38),"_","")</f>
+        <v>SlidePatternExampleId</v>
+      </c>
+      <c r="G38" s="21">
+        <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>146</v>
@@ -14947,12 +14945,41 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N38" s="3"/>
       <c r="P38" s="12" t="str">
         <f>D38&amp;":"&amp;E38&amp;IF(H38="●","(PK)","")&amp;IF(I38="●","(FK)","")</f>
-        <v>スライドパターン名称例:slide_pattern_name_example(PK)</v>
+        <v>スライドパターン名称例:slide_pattern_example_id(PK)</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16">
+      <c r="D39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="P39" s="24" t="str">
+        <f>D39&amp;":"&amp;E39&amp;IF(H39="●","(PK)","")&amp;IF(I39="●","(FK)","")</f>
+        <v>スライドパターン名称例:slide_pattern_name_example</v>
       </c>
     </row>
   </sheetData>
@@ -14969,9 +14996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE56C39-CD54-418A-B5B7-5F71B0B9F184}">
   <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AT40" sqref="AT40"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15.45"/>
   <cols>
